--- a/table.xlsx
+++ b/table.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="204"/>
@@ -49,6 +49,9 @@
       <family val="2"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -58,13 +61,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="6">
@@ -77,7 +86,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -93,6 +102,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -984,70 +996,100 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>vk_id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>vk_name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>ааааааааааааааааааааааааааааааааааааааааааа</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>бббббббббббббббббббббббббббббббббббббббббб</t>
         </is>
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>534259700</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Михаил Данилов</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Небесненький</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1047317</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://catwar.su/cat1047317</t>
         </is>
       </c>
-    </row>
-    <row r="3"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>478936081</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>евгения гладнева</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>вздох восхищения</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>1056845</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>https://catwar.su/cat1056845</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
